--- a/Empirehomecrm/src/main/java/com/testdata/EmpHome.xlsx
+++ b/Empirehomecrm/src/main/java/com/testdata/EmpHome.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15502" windowHeight="5377"/>
+    <workbookView windowWidth="18600" windowHeight="6930" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Login" sheetId="1" r:id="rId1"/>
+    <sheet name="AddProduct" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <oleSize ref="A1:B12"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="24">
   <si>
     <t>Username</t>
   </si>
@@ -29,7 +30,7 @@
     <t>ZPMHQHIA</t>
   </si>
   <si>
-    <t>ureshbabuemp@gmail.com</t>
+    <t>Sureshbabuemp@gmail.com</t>
   </si>
   <si>
     <t>zPMHQHIA</t>
@@ -45,6 +46,48 @@
   </si>
   <si>
     <t xml:space="preserve">  sureshbabuemp@gmail.com</t>
+  </si>
+  <si>
+    <t>Mnumber</t>
+  </si>
+  <si>
+    <t>ItemTitle</t>
+  </si>
+  <si>
+    <t>ItemDescription</t>
+  </si>
+  <si>
+    <t>Height</t>
+  </si>
+  <si>
+    <t>Width</t>
+  </si>
+  <si>
+    <t>Breadth</t>
+  </si>
+  <si>
+    <t>ColorName</t>
+  </si>
+  <si>
+    <t>ActualPrice</t>
+  </si>
+  <si>
+    <t>MRPfactory</t>
+  </si>
+  <si>
+    <t>Qty</t>
+  </si>
+  <si>
+    <t>PVR01</t>
+  </si>
+  <si>
+    <t>Vacuum Storage Bags</t>
+  </si>
+  <si>
+    <t>SELLWIZE 8 Pack Vacuum Storage Bags (4 x Small 4 x Mudium), More Space Saver Bags Vacuum Seal Bags with Pump, Space Bags, Vacuum Sealer Bags for Clothes, Comforters, Blankets, Bedding</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Transparent</t>
   </si>
 </sst>
 </file>
@@ -57,9 +100,23 @@
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
-    <font>
-      <sz val="11"/>
+  <fonts count="22">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -530,144 +587,153 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1205,8 +1271,8 @@
   <sheetPr/>
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="14.25" outlineLevelCol="1"/>
@@ -1224,7 +1290,7 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
@@ -1232,7 +1298,7 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
@@ -1240,7 +1306,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
@@ -1259,7 +1325,7 @@
       <c r="A6" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1308,11 +1374,181 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="sureshbabuemp@gmail.com"/>
-    <hyperlink ref="A3" r:id="rId2" display="ureshbabuemp@gmail.com" tooltip="mailto:ureshbabuemp@gmail.com"/>
+    <hyperlink ref="A3" r:id="rId2" display="Sureshbabuemp@gmail.com" tooltip="mailto:Sureshbabuemp@gmail.com"/>
     <hyperlink ref="B6" r:id="rId3" display="Z@PMHQHIA"/>
     <hyperlink ref="A4" r:id="rId1" display="sureshbabuemp@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="14.25" outlineLevelRow="4"/>
+  <cols>
+    <col min="1" max="1" width="10.7610619469027" customWidth="1"/>
+    <col min="2" max="2" width="14.0796460176991" customWidth="1"/>
+    <col min="3" max="3" width="37.3716814159292" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" ht="71.25" spans="1:10">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>80</v>
+      </c>
+      <c r="F2">
+        <v>60</v>
+      </c>
+      <c r="G2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2">
+        <v>850</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="14.25" outlineLevelRow="1"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" ht="342" spans="1:10">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>80</v>
+      </c>
+      <c r="F2">
+        <v>60</v>
+      </c>
+      <c r="G2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2">
+        <v>850</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/Empirehomecrm/src/main/java/com/testdata/EmpHome.xlsx
+++ b/Empirehomecrm/src/main/java/com/testdata/EmpHome.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18600" windowHeight="6930" activeTab="2"/>
+    <workbookView windowWidth="15352" windowHeight="5377" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
+  <oleSize ref="A1:J2"/>
 </workbook>
 </file>
 
@@ -1388,7 +1389,7 @@
   <sheetPr/>
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="$A1:$XFD2"/>
     </sheetView>
   </sheetViews>
@@ -1477,7 +1478,7 @@
   <sheetPr/>
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A1" sqref="$A1:$XFD2"/>
     </sheetView>
   </sheetViews>
